--- a/Code/Results/Cases/Case_5_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_205/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.68198413835036</v>
+        <v>13.62872295045842</v>
       </c>
       <c r="C2">
-        <v>10.51621557134826</v>
+        <v>10.69096673853132</v>
       </c>
       <c r="D2">
-        <v>3.808053934905881</v>
+        <v>6.27619033364414</v>
       </c>
       <c r="E2">
-        <v>7.659151559605306</v>
+        <v>12.04723991820016</v>
       </c>
       <c r="F2">
-        <v>34.27846458685651</v>
+        <v>45.50761799847239</v>
       </c>
       <c r="I2">
-        <v>21.7603045791919</v>
+        <v>30.69713944760976</v>
       </c>
       <c r="J2">
-        <v>6.062563159154806</v>
+        <v>10.22790188619332</v>
       </c>
       <c r="K2">
-        <v>12.96946285072458</v>
+        <v>14.81760398917551</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.55151386374919</v>
+        <v>17.71410498327276</v>
       </c>
       <c r="N2">
-        <v>15.49666412758239</v>
+        <v>23.10245998556939</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.86084975653325</v>
+        <v>13.45722975573752</v>
       </c>
       <c r="C3">
-        <v>9.927476424180416</v>
+        <v>10.57631360748561</v>
       </c>
       <c r="D3">
-        <v>3.660111077491161</v>
+        <v>6.269605433283227</v>
       </c>
       <c r="E3">
-        <v>7.499207319210139</v>
+        <v>12.05130322508275</v>
       </c>
       <c r="F3">
-        <v>33.6055044344836</v>
+        <v>45.48662517687411</v>
       </c>
       <c r="I3">
-        <v>21.61220658509378</v>
+        <v>30.73301094569045</v>
       </c>
       <c r="J3">
-        <v>6.062978711430301</v>
+        <v>10.24619272929466</v>
       </c>
       <c r="K3">
-        <v>12.29298177779008</v>
+        <v>14.71138967262536</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.11245650395937</v>
+        <v>17.68454041789056</v>
       </c>
       <c r="N3">
-        <v>15.67238020022947</v>
+        <v>23.15580052701276</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.33750428241889</v>
+        <v>13.35452903539459</v>
       </c>
       <c r="C4">
-        <v>9.555974878701532</v>
+        <v>10.50828343281554</v>
       </c>
       <c r="D4">
-        <v>3.567775473559728</v>
+        <v>6.266529836636598</v>
       </c>
       <c r="E4">
-        <v>7.403467377653933</v>
+        <v>12.05570197436559</v>
       </c>
       <c r="F4">
-        <v>33.21130170663674</v>
+        <v>45.48284905741044</v>
       </c>
       <c r="I4">
-        <v>21.53518692063864</v>
+        <v>30.76015662726947</v>
       </c>
       <c r="J4">
-        <v>6.065689387526942</v>
+        <v>10.25852432375581</v>
       </c>
       <c r="K4">
-        <v>11.86680164069932</v>
+        <v>14.64942813518405</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.8425284036073</v>
+        <v>17.66980029503447</v>
       </c>
       <c r="N4">
-        <v>15.78447490809888</v>
+        <v>23.19046458070316</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.11958794198663</v>
+        <v>13.31338244821356</v>
       </c>
       <c r="C5">
-        <v>9.402220843347472</v>
+        <v>10.4811867290635</v>
       </c>
       <c r="D5">
-        <v>3.529826875894583</v>
+        <v>6.265521279454934</v>
       </c>
       <c r="E5">
-        <v>7.36510502786</v>
+        <v>12.05797392139188</v>
       </c>
       <c r="F5">
-        <v>33.05545489331008</v>
+        <v>45.4836034910418</v>
       </c>
       <c r="I5">
-        <v>21.50718585624749</v>
+        <v>30.77250464953056</v>
       </c>
       <c r="J5">
-        <v>6.067396366830776</v>
+        <v>10.26382665022762</v>
       </c>
       <c r="K5">
-        <v>11.69061550676502</v>
+        <v>14.62502032929413</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.73259143602177</v>
+        <v>17.664656379231</v>
       </c>
       <c r="N5">
-        <v>15.83120078479418</v>
+        <v>23.20507201218722</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.08312821081354</v>
+        <v>13.30659414247078</v>
       </c>
       <c r="C6">
-        <v>9.376552509295914</v>
+        <v>10.47672603467405</v>
       </c>
       <c r="D6">
-        <v>3.523507892467197</v>
+        <v>6.265368633587562</v>
       </c>
       <c r="E6">
-        <v>7.358775328850347</v>
+        <v>12.05838014925652</v>
       </c>
       <c r="F6">
-        <v>33.0298665002701</v>
+        <v>45.48386728991948</v>
       </c>
       <c r="I6">
-        <v>21.5027373949947</v>
+        <v>30.77463264334821</v>
       </c>
       <c r="J6">
-        <v>6.067715755825851</v>
+        <v>10.26472384128545</v>
       </c>
       <c r="K6">
-        <v>11.66121487924844</v>
+        <v>14.62101894965724</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.71434471990121</v>
+        <v>17.66385447089118</v>
       </c>
       <c r="N6">
-        <v>15.83902250049182</v>
+        <v>23.20752666645696</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.33458395040245</v>
+        <v>13.35397119707696</v>
       </c>
       <c r="C7">
-        <v>9.553910640961426</v>
+        <v>10.50791542220359</v>
       </c>
       <c r="D7">
-        <v>3.567264907570988</v>
+        <v>6.266515241942431</v>
       </c>
       <c r="E7">
-        <v>7.402947325510372</v>
+        <v>12.05573067268862</v>
       </c>
       <c r="F7">
-        <v>33.20918047576269</v>
+        <v>45.48284994575481</v>
       </c>
       <c r="I7">
-        <v>21.53479573378486</v>
+        <v>30.76031795274316</v>
       </c>
       <c r="J7">
-        <v>6.065709989199325</v>
+        <v>10.25859471047214</v>
       </c>
       <c r="K7">
-        <v>11.86443541163608</v>
+        <v>14.64909552353875</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.84104530431599</v>
+        <v>17.66972742325446</v>
       </c>
       <c r="N7">
-        <v>15.78510084571265</v>
+        <v>23.19065963113141</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.40292344957311</v>
+        <v>13.56908461594836</v>
       </c>
       <c r="C8">
-        <v>10.31537801559027</v>
+        <v>10.6509619242484</v>
       </c>
       <c r="D8">
-        <v>3.757385614556048</v>
+        <v>6.273719962790787</v>
       </c>
       <c r="E8">
-        <v>7.603510238823433</v>
+        <v>12.04824624827991</v>
       </c>
       <c r="F8">
-        <v>34.04249747352338</v>
+        <v>45.4984894546978</v>
       </c>
       <c r="I8">
-        <v>21.70628499499756</v>
+        <v>30.70844428241137</v>
       </c>
       <c r="J8">
-        <v>6.062187582705022</v>
+        <v>10.23398022626676</v>
       </c>
       <c r="K8">
-        <v>12.73856891500748</v>
+        <v>14.7803204673493</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.40028310977354</v>
+        <v>17.70320581625928</v>
       </c>
       <c r="N8">
-        <v>15.55637127055096</v>
+        <v>23.12045515821165</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.44700240820864</v>
+        <v>14.00919210843042</v>
       </c>
       <c r="C9">
-        <v>11.7241581046779</v>
+        <v>10.94884274186835</v>
       </c>
       <c r="D9">
-        <v>4.116202960998279</v>
+        <v>6.295456120891131</v>
       </c>
       <c r="E9">
-        <v>8.014991599259094</v>
+        <v>12.04864105365568</v>
       </c>
       <c r="F9">
-        <v>35.82641293940023</v>
+        <v>45.60135339612514</v>
       </c>
       <c r="I9">
-        <v>22.15797667946486</v>
+        <v>30.64741379164499</v>
       </c>
       <c r="J9">
-        <v>6.075465073660733</v>
+        <v>10.19443533245925</v>
       </c>
       <c r="K9">
-        <v>14.35982515309882</v>
+        <v>15.06236727845415</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.48844115493915</v>
+        <v>17.79570304893642</v>
       </c>
       <c r="N9">
-        <v>15.14179145579732</v>
+        <v>22.99793482200433</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91608578927481</v>
+        <v>14.34050387788853</v>
       </c>
       <c r="C10">
-        <v>12.70323276404394</v>
+        <v>11.17631988751211</v>
       </c>
       <c r="D10">
-        <v>4.36889492344886</v>
+        <v>6.315963619154025</v>
       </c>
       <c r="E10">
-        <v>8.326636594069063</v>
+        <v>12.05806585061855</v>
       </c>
       <c r="F10">
-        <v>37.22722284749769</v>
+        <v>45.72071058970767</v>
       </c>
       <c r="I10">
-        <v>22.56700253657623</v>
+        <v>30.62745983616441</v>
       </c>
       <c r="J10">
-        <v>6.098532431867232</v>
+        <v>10.17068468597037</v>
       </c>
       <c r="K10">
-        <v>15.68054317642001</v>
+        <v>15.28308342396595</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.27615641964691</v>
+        <v>17.8796784461566</v>
       </c>
       <c r="N10">
-        <v>14.85893504732218</v>
+        <v>22.91711806616632</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.5537791816276</v>
+        <v>14.49227977336347</v>
       </c>
       <c r="C11">
-        <v>13.13610653399717</v>
+        <v>11.28124851244455</v>
       </c>
       <c r="D11">
-        <v>4.481095688767785</v>
+        <v>6.326254530029028</v>
       </c>
       <c r="E11">
-        <v>8.470115296680005</v>
+        <v>12.06432241227009</v>
       </c>
       <c r="F11">
-        <v>37.88394588254891</v>
+        <v>45.78443998119154</v>
       </c>
       <c r="I11">
-        <v>22.77129886276405</v>
+        <v>30.62379643886291</v>
       </c>
       <c r="J11">
-        <v>6.112148353007242</v>
+        <v>10.1610280284165</v>
       </c>
       <c r="K11">
-        <v>16.2743195083721</v>
+        <v>15.38606779861135</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.63091391472187</v>
+        <v>17.92127179712264</v>
       </c>
       <c r="N11">
-        <v>14.73527861110494</v>
+        <v>22.88234227467576</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.79095404567647</v>
+        <v>14.54985007968526</v>
       </c>
       <c r="C12">
-        <v>13.29822451669274</v>
+        <v>11.32115428197619</v>
       </c>
       <c r="D12">
-        <v>4.523163549598457</v>
+        <v>6.330287523231497</v>
       </c>
       <c r="E12">
-        <v>8.524670190912662</v>
+        <v>12.06697323346817</v>
       </c>
       <c r="F12">
-        <v>38.13543554992632</v>
+        <v>45.809920208102</v>
       </c>
       <c r="I12">
-        <v>22.85140329146243</v>
+        <v>30.62318792624927</v>
       </c>
       <c r="J12">
-        <v>6.117773543610525</v>
+        <v>10.15753604771355</v>
       </c>
       <c r="K12">
-        <v>16.49520439311258</v>
+        <v>15.4254052126034</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.76467335140151</v>
+        <v>17.93750154121341</v>
       </c>
       <c r="N12">
-        <v>14.68920679605096</v>
+        <v>22.86945898187848</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.74006410021127</v>
+        <v>14.53744789852855</v>
       </c>
       <c r="C13">
-        <v>13.26338945732265</v>
+        <v>11.31255281130716</v>
       </c>
       <c r="D13">
-        <v>4.514122503898805</v>
+        <v>6.329412932750493</v>
       </c>
       <c r="E13">
-        <v>8.512911240665547</v>
+        <v>12.06638983433504</v>
       </c>
       <c r="F13">
-        <v>38.08114787942556</v>
+        <v>45.80437282529568</v>
       </c>
       <c r="I13">
-        <v>22.83402746772091</v>
+        <v>30.62328434550841</v>
       </c>
       <c r="J13">
-        <v>6.116540860677309</v>
+        <v>10.15828078327838</v>
       </c>
       <c r="K13">
-        <v>16.44780757182875</v>
+        <v>15.41691860505739</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.73589247934732</v>
+        <v>17.93398500407323</v>
       </c>
       <c r="N13">
-        <v>14.69909505500813</v>
+        <v>22.87222093515787</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.57337742324229</v>
+        <v>14.49701451119306</v>
       </c>
       <c r="C14">
-        <v>13.1494801279875</v>
+        <v>11.28452835481797</v>
       </c>
       <c r="D14">
-        <v>4.484565179151383</v>
+        <v>6.326583613668935</v>
       </c>
       <c r="E14">
-        <v>8.474599216655045</v>
+        <v>12.06453486287509</v>
       </c>
       <c r="F14">
-        <v>37.90457984449934</v>
+        <v>45.7865093106699</v>
       </c>
       <c r="I14">
-        <v>22.7778334487271</v>
+        <v>30.62373076893133</v>
       </c>
       <c r="J14">
-        <v>6.112601619348831</v>
+        <v>10.16073743992181</v>
       </c>
       <c r="K14">
-        <v>16.29257071398936</v>
+        <v>15.38929748992905</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.64193030631249</v>
+        <v>17.92259747450541</v>
       </c>
       <c r="N14">
-        <v>14.73147293036116</v>
+        <v>22.88127663761526</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.47071922941944</v>
+        <v>14.47225874809993</v>
       </c>
       <c r="C15">
-        <v>13.07947300962471</v>
+        <v>11.26738382522015</v>
       </c>
       <c r="D15">
-        <v>4.46640511087419</v>
+        <v>6.324868221900106</v>
       </c>
       <c r="E15">
-        <v>8.451160371543537</v>
+        <v>12.06343526216086</v>
       </c>
       <c r="F15">
-        <v>37.79679217919743</v>
+        <v>45.77574255262002</v>
       </c>
       <c r="I15">
-        <v>22.7437736951355</v>
+        <v>30.62410563211809</v>
       </c>
       <c r="J15">
-        <v>6.110250432115008</v>
+        <v>10.16226366572359</v>
       </c>
       <c r="K15">
-        <v>16.19697034035383</v>
+        <v>15.37242202540731</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.58429867175262</v>
+        <v>17.9156844303806</v>
       </c>
       <c r="N15">
-        <v>14.75140460960037</v>
+        <v>22.88686069316153</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.87380315791299</v>
+        <v>14.33060145947363</v>
       </c>
       <c r="C16">
-        <v>12.67469093011375</v>
+        <v>11.16948855794543</v>
       </c>
       <c r="D16">
-        <v>4.361504766722693</v>
+        <v>6.31531024879347</v>
       </c>
       <c r="E16">
-        <v>8.317292245902205</v>
+        <v>12.0576964642312</v>
       </c>
       <c r="F16">
-        <v>37.18469624072463</v>
+        <v>45.71673478991231</v>
       </c>
       <c r="I16">
-        <v>22.55402833408743</v>
+        <v>30.62780821505654</v>
       </c>
       <c r="J16">
-        <v>6.097707127437531</v>
+        <v>10.17133884401626</v>
       </c>
       <c r="K16">
-        <v>15.64117800874145</v>
+        <v>15.27640238179129</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.25289421199414</v>
+        <v>17.87702776796241</v>
       </c>
       <c r="N16">
-        <v>14.86711990238203</v>
+        <v>22.91943072234547</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.49984164090124</v>
+        <v>14.24393046568112</v>
       </c>
       <c r="C17">
-        <v>12.4231565439355</v>
+        <v>11.10977776209567</v>
       </c>
       <c r="D17">
-        <v>4.296428140970652</v>
+        <v>6.309691537446062</v>
       </c>
       <c r="E17">
-        <v>8.23558856120385</v>
+        <v>12.0546791881008</v>
       </c>
       <c r="F17">
-        <v>36.81418145371897</v>
+        <v>45.68294540673254</v>
       </c>
       <c r="I17">
-        <v>22.44237934052348</v>
+        <v>30.6314665040785</v>
       </c>
       <c r="J17">
-        <v>6.090825940377859</v>
+        <v>10.1771999381047</v>
       </c>
       <c r="K17">
-        <v>15.29304568387312</v>
+        <v>15.21813590415558</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.04861988026038</v>
+        <v>17.85417613926878</v>
       </c>
       <c r="N17">
-        <v>14.93941384582976</v>
+        <v>22.93992033954447</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.28186249023089</v>
+        <v>14.19418274715001</v>
       </c>
       <c r="C18">
-        <v>12.27730160714157</v>
+        <v>11.07557218989582</v>
       </c>
       <c r="D18">
-        <v>4.258740055290733</v>
+        <v>6.30655049049154</v>
       </c>
       <c r="E18">
-        <v>8.18875685114342</v>
+        <v>12.05312918313305</v>
       </c>
       <c r="F18">
-        <v>36.60290445965671</v>
+        <v>45.66439918325084</v>
       </c>
       <c r="I18">
-        <v>22.37987019435114</v>
+        <v>30.6340802300175</v>
       </c>
       <c r="J18">
-        <v>6.087160699610477</v>
+        <v>10.18067911979567</v>
       </c>
       <c r="K18">
-        <v>15.09014194194799</v>
+        <v>15.18486728476959</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.93079264591473</v>
+        <v>17.8413523602118</v>
       </c>
       <c r="N18">
-        <v>14.98146527695407</v>
+        <v>22.95189257957915</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.20756001646287</v>
+        <v>14.1773584752545</v>
       </c>
       <c r="C19">
-        <v>12.22771558248954</v>
+        <v>11.06401567726393</v>
       </c>
       <c r="D19">
-        <v>4.245936093042521</v>
+        <v>6.30550262898682</v>
       </c>
       <c r="E19">
-        <v>8.172929054353387</v>
+        <v>12.0526362747421</v>
       </c>
       <c r="F19">
-        <v>36.53168483836661</v>
+        <v>45.65827261516255</v>
       </c>
       <c r="I19">
-        <v>22.35899546425955</v>
+        <v>30.6350526997736</v>
       </c>
       <c r="J19">
-        <v>6.085969376705877</v>
+        <v>10.18187567336285</v>
       </c>
       <c r="K19">
-        <v>15.0209811977982</v>
+        <v>15.17364608193938</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.89084327381371</v>
+        <v>17.83706563960062</v>
       </c>
       <c r="N19">
-        <v>14.99578296298109</v>
+        <v>22.9559783292834</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.53994855438712</v>
+        <v>14.25314647783613</v>
       </c>
       <c r="C20">
-        <v>12.45005492170803</v>
+        <v>11.11612001024473</v>
       </c>
       <c r="D20">
-        <v>4.303382529210229</v>
+        <v>6.31028028920127</v>
       </c>
       <c r="E20">
-        <v>8.244269464307717</v>
+        <v>12.05498119949227</v>
       </c>
       <c r="F20">
-        <v>36.85343369710362</v>
+        <v>45.68645044624298</v>
       </c>
       <c r="I20">
-        <v>22.45408688962702</v>
+        <v>30.63102433097563</v>
       </c>
       <c r="J20">
-        <v>6.09152802541714</v>
+        <v>10.17656483510008</v>
       </c>
       <c r="K20">
-        <v>15.33038031319721</v>
+        <v>15.22431336902183</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.07040033206636</v>
+        <v>17.85657568881551</v>
       </c>
       <c r="N20">
-        <v>14.93166918348349</v>
+        <v>22.93771981762217</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.62245340323361</v>
+        <v>14.50888861433462</v>
       </c>
       <c r="C21">
-        <v>13.18298687463739</v>
+        <v>11.29275545174447</v>
       </c>
       <c r="D21">
-        <v>4.493258453966183</v>
+        <v>6.327410979703176</v>
       </c>
       <c r="E21">
-        <v>8.485846508579847</v>
+        <v>12.06507208381921</v>
       </c>
       <c r="F21">
-        <v>37.95636598886706</v>
+        <v>45.79171977297896</v>
       </c>
       <c r="I21">
-        <v>22.79426360332089</v>
+        <v>30.62357850859191</v>
       </c>
       <c r="J21">
-        <v>6.113745771814608</v>
+        <v>10.16001139004115</v>
       </c>
       <c r="K21">
-        <v>16.33827432803222</v>
+        <v>15.39740152120511</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.66954543023817</v>
+        <v>17.92592933286056</v>
       </c>
       <c r="N21">
-        <v>14.7219420031873</v>
+        <v>22.87860901137208</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.30488555265766</v>
+        <v>14.67656549106364</v>
       </c>
       <c r="C22">
-        <v>13.65151146662807</v>
+        <v>11.40918017596763</v>
       </c>
       <c r="D22">
-        <v>4.614896821080743</v>
+        <v>6.339398730354253</v>
       </c>
       <c r="E22">
-        <v>8.645021136483704</v>
+        <v>12.07330757803516</v>
       </c>
       <c r="F22">
-        <v>38.69354814753287</v>
+        <v>45.86836716450355</v>
       </c>
       <c r="I22">
-        <v>23.03262907950035</v>
+        <v>30.62325117856182</v>
       </c>
       <c r="J22">
-        <v>6.131011015003386</v>
+        <v>10.15015313724381</v>
       </c>
       <c r="K22">
-        <v>16.97393013792534</v>
+        <v>15.51248839313588</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.05772622526387</v>
+        <v>17.97404495263572</v>
       </c>
       <c r="N22">
-        <v>14.58928893162125</v>
+        <v>22.84164090774323</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.942917040626</v>
+        <v>14.58704262209082</v>
       </c>
       <c r="C23">
-        <v>13.40240601679583</v>
+        <v>11.34696419554624</v>
       </c>
       <c r="D23">
-        <v>4.550207667541118</v>
+        <v>6.332928971172897</v>
       </c>
       <c r="E23">
-        <v>8.559955122425887</v>
+        <v>12.06876259344231</v>
       </c>
       <c r="F23">
-        <v>38.29859863942968</v>
+        <v>45.82674432728811</v>
       </c>
       <c r="I23">
-        <v>22.90390042771505</v>
+        <v>30.62301057394379</v>
       </c>
       <c r="J23">
-        <v>6.121538143465422</v>
+        <v>10.15532687947685</v>
       </c>
       <c r="K23">
-        <v>16.63674383784823</v>
+        <v>15.45089519528945</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.85087424183165</v>
+        <v>17.94811253876589</v>
       </c>
       <c r="N23">
-        <v>14.65967186145042</v>
+        <v>22.8612193139642</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.52182551937911</v>
+        <v>14.24897966337065</v>
       </c>
       <c r="C24">
-        <v>12.4378980408903</v>
+        <v>11.11325229404644</v>
       </c>
       <c r="D24">
-        <v>4.30023930387803</v>
+        <v>6.310013836451228</v>
       </c>
       <c r="E24">
-        <v>8.240344387548463</v>
+        <v>12.05484408481493</v>
       </c>
       <c r="F24">
-        <v>36.83568234760247</v>
+        <v>45.68486307672531</v>
       </c>
       <c r="I24">
-        <v>22.44878868496405</v>
+        <v>30.63122264709631</v>
       </c>
       <c r="J24">
-        <v>6.091209708361771</v>
+        <v>10.17685162387355</v>
       </c>
       <c r="K24">
-        <v>15.31350992476279</v>
+        <v>15.2215198196991</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.06055459069428</v>
+        <v>17.85548987395003</v>
       </c>
       <c r="N24">
-        <v>14.93516902560806</v>
+        <v>22.93871407390384</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.87828304418341</v>
+        <v>13.88850200416767</v>
       </c>
       <c r="C25">
-        <v>11.35265765000515</v>
+        <v>10.86659881047857</v>
       </c>
       <c r="D25">
-        <v>4.020903688067992</v>
+        <v>6.288771260488072</v>
       </c>
       <c r="E25">
-        <v>7.901916772859023</v>
+        <v>12.04692558802497</v>
       </c>
       <c r="F25">
-        <v>35.32790695988395</v>
+        <v>45.56581523101211</v>
       </c>
       <c r="I25">
-        <v>22.02272135995726</v>
+        <v>30.65955843543721</v>
       </c>
       <c r="J25">
-        <v>6.069610666051744</v>
+        <v>10.2042008724488</v>
       </c>
       <c r="K25">
-        <v>13.93202254735401</v>
+        <v>14.98357797878301</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.1957172173173</v>
+        <v>17.76783943840669</v>
       </c>
       <c r="N25">
-        <v>15.25021721815165</v>
+        <v>23.0294617783635</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_205/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.62872295045842</v>
+        <v>13.68198413835037</v>
       </c>
       <c r="C2">
-        <v>10.69096673853132</v>
+        <v>10.51621557134823</v>
       </c>
       <c r="D2">
-        <v>6.27619033364414</v>
+        <v>3.808053934905969</v>
       </c>
       <c r="E2">
-        <v>12.04723991820016</v>
+        <v>7.65915155960538</v>
       </c>
       <c r="F2">
-        <v>45.50761799847239</v>
+        <v>34.27846458685663</v>
       </c>
       <c r="I2">
-        <v>30.69713944760976</v>
+        <v>21.76030457919199</v>
       </c>
       <c r="J2">
-        <v>10.22790188619332</v>
+        <v>6.062563159154833</v>
       </c>
       <c r="K2">
-        <v>14.81760398917551</v>
+        <v>12.96946285072458</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.71410498327276</v>
+        <v>12.55151386374923</v>
       </c>
       <c r="N2">
-        <v>23.10245998556939</v>
+        <v>15.49666412758243</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.45722975573752</v>
+        <v>12.86084975653328</v>
       </c>
       <c r="C3">
-        <v>10.57631360748561</v>
+        <v>9.927476424180433</v>
       </c>
       <c r="D3">
-        <v>6.269605433283227</v>
+        <v>3.660111077491171</v>
       </c>
       <c r="E3">
-        <v>12.05130322508275</v>
+        <v>7.499207319210226</v>
       </c>
       <c r="F3">
-        <v>45.48662517687411</v>
+        <v>33.60550443448384</v>
       </c>
       <c r="I3">
-        <v>30.73301094569045</v>
+        <v>21.61220658509395</v>
       </c>
       <c r="J3">
-        <v>10.24619272929466</v>
+        <v>6.062978711430398</v>
       </c>
       <c r="K3">
-        <v>14.71138967262536</v>
+        <v>12.29298177779015</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.68454041789056</v>
+        <v>12.11245650395945</v>
       </c>
       <c r="N3">
-        <v>23.15580052701276</v>
+        <v>15.67238020022953</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.35452903539459</v>
+        <v>12.33750428241886</v>
       </c>
       <c r="C4">
-        <v>10.50828343281554</v>
+        <v>9.555974878701553</v>
       </c>
       <c r="D4">
-        <v>6.266529836636598</v>
+        <v>3.5677754735597</v>
       </c>
       <c r="E4">
-        <v>12.05570197436559</v>
+        <v>7.403467377653971</v>
       </c>
       <c r="F4">
-        <v>45.48284905741044</v>
+        <v>33.21130170663643</v>
       </c>
       <c r="I4">
-        <v>30.76015662726947</v>
+        <v>21.53518692063839</v>
       </c>
       <c r="J4">
-        <v>10.25852432375581</v>
+        <v>6.065689387526909</v>
       </c>
       <c r="K4">
-        <v>14.64942813518405</v>
+        <v>11.86680164069928</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.66980029503447</v>
+        <v>11.84252840360726</v>
       </c>
       <c r="N4">
-        <v>23.19046458070316</v>
+        <v>15.78447490809872</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.31338244821356</v>
+        <v>12.1195879419866</v>
       </c>
       <c r="C5">
-        <v>10.4811867290635</v>
+        <v>9.402220843347402</v>
       </c>
       <c r="D5">
-        <v>6.265521279454934</v>
+        <v>3.529826875894556</v>
       </c>
       <c r="E5">
-        <v>12.05797392139188</v>
+        <v>7.365105027860003</v>
       </c>
       <c r="F5">
-        <v>45.4836034910418</v>
+        <v>33.0554548933098</v>
       </c>
       <c r="I5">
-        <v>30.77250464953056</v>
+        <v>21.50718585624723</v>
       </c>
       <c r="J5">
-        <v>10.26382665022762</v>
+        <v>6.067396366830748</v>
       </c>
       <c r="K5">
-        <v>14.62502032929413</v>
+        <v>11.69061550676498</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.664656379231</v>
+        <v>11.73259143602172</v>
       </c>
       <c r="N5">
-        <v>23.20507201218722</v>
+        <v>15.83120078479402</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.30659414247078</v>
+        <v>12.08312821081353</v>
       </c>
       <c r="C6">
-        <v>10.47672603467405</v>
+        <v>9.376552509295886</v>
       </c>
       <c r="D6">
-        <v>6.265368633587562</v>
+        <v>3.523507892467249</v>
       </c>
       <c r="E6">
-        <v>12.05838014925652</v>
+        <v>7.358775328850345</v>
       </c>
       <c r="F6">
-        <v>45.48386728991948</v>
+        <v>33.02986650026987</v>
       </c>
       <c r="I6">
-        <v>30.77463264334821</v>
+        <v>21.50273739499452</v>
       </c>
       <c r="J6">
-        <v>10.26472384128545</v>
+        <v>6.067715755825768</v>
       </c>
       <c r="K6">
-        <v>14.62101894965724</v>
+        <v>11.66121487924841</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.66385447089118</v>
+        <v>11.71434471990117</v>
       </c>
       <c r="N6">
-        <v>23.20752666645696</v>
+        <v>15.83902250049172</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.35397119707696</v>
+        <v>12.33458395040244</v>
       </c>
       <c r="C7">
-        <v>10.50791542220359</v>
+        <v>9.553910640961409</v>
       </c>
       <c r="D7">
-        <v>6.266515241942431</v>
+        <v>3.567264907570956</v>
       </c>
       <c r="E7">
-        <v>12.05573067268862</v>
+        <v>7.402947325510382</v>
       </c>
       <c r="F7">
-        <v>45.48284994575481</v>
+        <v>33.20918047576266</v>
       </c>
       <c r="I7">
-        <v>30.76031795274316</v>
+        <v>21.53479573378488</v>
       </c>
       <c r="J7">
-        <v>10.25859471047214</v>
+        <v>6.065709989199387</v>
       </c>
       <c r="K7">
-        <v>14.64909552353875</v>
+        <v>11.86443541163608</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.66972742325446</v>
+        <v>11.841045304316</v>
       </c>
       <c r="N7">
-        <v>23.19065963113141</v>
+        <v>15.78510084571266</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.56908461594836</v>
+        <v>13.4029234495731</v>
       </c>
       <c r="C8">
-        <v>10.6509619242484</v>
+        <v>10.31537801559024</v>
       </c>
       <c r="D8">
-        <v>6.273719962790787</v>
+        <v>3.757385614556055</v>
       </c>
       <c r="E8">
-        <v>12.04824624827991</v>
+        <v>7.603510238823525</v>
       </c>
       <c r="F8">
-        <v>45.4984894546978</v>
+        <v>34.04249747352318</v>
       </c>
       <c r="I8">
-        <v>30.70844428241137</v>
+        <v>21.70628499499736</v>
       </c>
       <c r="J8">
-        <v>10.23398022626676</v>
+        <v>6.062187582705046</v>
       </c>
       <c r="K8">
-        <v>14.7803204673493</v>
+        <v>12.73856891500744</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.70320581625928</v>
+        <v>12.40028310977351</v>
       </c>
       <c r="N8">
-        <v>23.12045515821165</v>
+        <v>15.55637127055087</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.00919210843042</v>
+        <v>15.4470024082087</v>
       </c>
       <c r="C9">
-        <v>10.94884274186835</v>
+        <v>11.72415810467789</v>
       </c>
       <c r="D9">
-        <v>6.295456120891131</v>
+        <v>4.116202960998241</v>
       </c>
       <c r="E9">
-        <v>12.04864105365568</v>
+        <v>8.014991599259162</v>
       </c>
       <c r="F9">
-        <v>45.60135339612514</v>
+        <v>35.82641293940006</v>
       </c>
       <c r="I9">
-        <v>30.64741379164499</v>
+        <v>22.1579766794648</v>
       </c>
       <c r="J9">
-        <v>10.19443533245925</v>
+        <v>6.075465073660865</v>
       </c>
       <c r="K9">
-        <v>15.06236727845415</v>
+        <v>14.35982515309881</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.79570304893642</v>
+        <v>13.48844115493914</v>
       </c>
       <c r="N9">
-        <v>22.99793482200433</v>
+        <v>15.1417914557973</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.34050387788853</v>
+        <v>16.91608578927485</v>
       </c>
       <c r="C10">
-        <v>11.17631988751211</v>
+        <v>12.70323276404396</v>
       </c>
       <c r="D10">
-        <v>6.315963619154025</v>
+        <v>4.368894923448904</v>
       </c>
       <c r="E10">
-        <v>12.05806585061855</v>
+        <v>8.326636594069102</v>
       </c>
       <c r="F10">
-        <v>45.72071058970767</v>
+        <v>37.22722284749775</v>
       </c>
       <c r="I10">
-        <v>30.62745983616441</v>
+        <v>22.56700253657625</v>
       </c>
       <c r="J10">
-        <v>10.17068468597037</v>
+        <v>6.098532431867282</v>
       </c>
       <c r="K10">
-        <v>15.28308342396595</v>
+        <v>15.68054317642007</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.8796784461566</v>
+        <v>14.27615641964693</v>
       </c>
       <c r="N10">
-        <v>22.91711806616632</v>
+        <v>14.85893504732219</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.49227977336347</v>
+        <v>17.55377918162765</v>
       </c>
       <c r="C11">
-        <v>11.28124851244455</v>
+        <v>13.13610653399716</v>
       </c>
       <c r="D11">
-        <v>6.326254530029028</v>
+        <v>4.481095688767811</v>
       </c>
       <c r="E11">
-        <v>12.06432241227009</v>
+        <v>8.47011529668</v>
       </c>
       <c r="F11">
-        <v>45.78443998119154</v>
+        <v>37.88394588254896</v>
       </c>
       <c r="I11">
-        <v>30.62379643886291</v>
+        <v>22.77129886276413</v>
       </c>
       <c r="J11">
-        <v>10.1610280284165</v>
+        <v>6.112148353007168</v>
       </c>
       <c r="K11">
-        <v>15.38606779861135</v>
+        <v>16.27431950837212</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.92127179712264</v>
+        <v>14.63091391472187</v>
       </c>
       <c r="N11">
-        <v>22.88234227467576</v>
+        <v>14.73527861110497</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.54985007968526</v>
+        <v>17.79095404567645</v>
       </c>
       <c r="C12">
-        <v>11.32115428197619</v>
+        <v>13.29822451669275</v>
       </c>
       <c r="D12">
-        <v>6.330287523231497</v>
+        <v>4.523163549598403</v>
       </c>
       <c r="E12">
-        <v>12.06697323346817</v>
+        <v>8.524670190912621</v>
       </c>
       <c r="F12">
-        <v>45.809920208102</v>
+        <v>38.13543554992631</v>
       </c>
       <c r="I12">
-        <v>30.62318792624927</v>
+        <v>22.85140329146246</v>
       </c>
       <c r="J12">
-        <v>10.15753604771355</v>
+        <v>6.117773543610516</v>
       </c>
       <c r="K12">
-        <v>15.4254052126034</v>
+        <v>16.49520439311257</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.93750154121341</v>
+        <v>14.76467335140149</v>
       </c>
       <c r="N12">
-        <v>22.86945898187848</v>
+        <v>14.68920679605097</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.53744789852855</v>
+        <v>17.74006410021132</v>
       </c>
       <c r="C13">
-        <v>11.31255281130716</v>
+        <v>13.26338945732265</v>
       </c>
       <c r="D13">
-        <v>6.329412932750493</v>
+        <v>4.514122503898742</v>
       </c>
       <c r="E13">
-        <v>12.06638983433504</v>
+        <v>8.512911240665566</v>
       </c>
       <c r="F13">
-        <v>45.80437282529568</v>
+        <v>38.08114787942554</v>
       </c>
       <c r="I13">
-        <v>30.62328434550841</v>
+        <v>22.83402746772089</v>
       </c>
       <c r="J13">
-        <v>10.15828078327838</v>
+        <v>6.11654086067729</v>
       </c>
       <c r="K13">
-        <v>15.41691860505739</v>
+        <v>16.44780757182875</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.93398500407323</v>
+        <v>14.73589247934733</v>
       </c>
       <c r="N13">
-        <v>22.87222093515787</v>
+        <v>14.69909505500812</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.49701451119306</v>
+        <v>17.57337742324234</v>
       </c>
       <c r="C14">
-        <v>11.28452835481797</v>
+        <v>13.14948012798747</v>
       </c>
       <c r="D14">
-        <v>6.326583613668935</v>
+        <v>4.484565179151278</v>
       </c>
       <c r="E14">
-        <v>12.06453486287509</v>
+        <v>8.474599216655013</v>
       </c>
       <c r="F14">
-        <v>45.7865093106699</v>
+        <v>37.90457984449932</v>
       </c>
       <c r="I14">
-        <v>30.62373076893133</v>
+        <v>22.77783344872711</v>
       </c>
       <c r="J14">
-        <v>10.16073743992181</v>
+        <v>6.112601619348879</v>
       </c>
       <c r="K14">
-        <v>15.38929748992905</v>
+        <v>16.29257071398939</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.92259747450541</v>
+        <v>14.64193030631248</v>
       </c>
       <c r="N14">
-        <v>22.88127663761526</v>
+        <v>14.73147293036117</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.47225874809993</v>
+        <v>17.47071922941943</v>
       </c>
       <c r="C15">
-        <v>11.26738382522015</v>
+        <v>13.07947300962472</v>
       </c>
       <c r="D15">
-        <v>6.324868221900106</v>
+        <v>4.466405110874167</v>
       </c>
       <c r="E15">
-        <v>12.06343526216086</v>
+        <v>8.451160371543489</v>
       </c>
       <c r="F15">
-        <v>45.77574255262002</v>
+        <v>37.79679217919743</v>
       </c>
       <c r="I15">
-        <v>30.62410563211809</v>
+        <v>22.74377369513557</v>
       </c>
       <c r="J15">
-        <v>10.16226366572359</v>
+        <v>6.110250432115008</v>
       </c>
       <c r="K15">
-        <v>15.37242202540731</v>
+        <v>16.19697034035385</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.9156844303806</v>
+        <v>14.5842986717526</v>
       </c>
       <c r="N15">
-        <v>22.88686069316153</v>
+        <v>14.75140460960044</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.33060145947363</v>
+        <v>16.87380315791308</v>
       </c>
       <c r="C16">
-        <v>11.16948855794543</v>
+        <v>12.67469093011375</v>
       </c>
       <c r="D16">
-        <v>6.31531024879347</v>
+        <v>4.361504766722677</v>
       </c>
       <c r="E16">
-        <v>12.0576964642312</v>
+        <v>8.317292245902152</v>
       </c>
       <c r="F16">
-        <v>45.71673478991231</v>
+        <v>37.18469624072452</v>
       </c>
       <c r="I16">
-        <v>30.62780821505654</v>
+        <v>22.5540283340873</v>
       </c>
       <c r="J16">
-        <v>10.17133884401626</v>
+        <v>6.097707127437531</v>
       </c>
       <c r="K16">
-        <v>15.27640238179129</v>
+        <v>15.64117800874153</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.87702776796241</v>
+        <v>14.2528942119941</v>
       </c>
       <c r="N16">
-        <v>22.91943072234547</v>
+        <v>14.867119902382</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.24393046568112</v>
+        <v>16.49984164090129</v>
       </c>
       <c r="C17">
-        <v>11.10977776209567</v>
+        <v>12.4231565439355</v>
       </c>
       <c r="D17">
-        <v>6.309691537446062</v>
+        <v>4.296428140970711</v>
       </c>
       <c r="E17">
-        <v>12.0546791881008</v>
+        <v>8.235588561203846</v>
       </c>
       <c r="F17">
-        <v>45.68294540673254</v>
+        <v>36.81418145371897</v>
       </c>
       <c r="I17">
-        <v>30.6314665040785</v>
+        <v>22.44237934052337</v>
       </c>
       <c r="J17">
-        <v>10.1771999381047</v>
+        <v>6.090825940377834</v>
       </c>
       <c r="K17">
-        <v>15.21813590415558</v>
+        <v>15.29304568387313</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.85417613926878</v>
+        <v>14.04861988026039</v>
       </c>
       <c r="N17">
-        <v>22.93992033954447</v>
+        <v>14.9394138458297</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.19418274715001</v>
+        <v>16.28186249023095</v>
       </c>
       <c r="C18">
-        <v>11.07557218989582</v>
+        <v>12.27730160714158</v>
       </c>
       <c r="D18">
-        <v>6.30655049049154</v>
+        <v>4.258740055290669</v>
       </c>
       <c r="E18">
-        <v>12.05312918313305</v>
+        <v>8.188756851143413</v>
       </c>
       <c r="F18">
-        <v>45.66439918325084</v>
+        <v>36.60290445965656</v>
       </c>
       <c r="I18">
-        <v>30.6340802300175</v>
+        <v>22.37987019435099</v>
       </c>
       <c r="J18">
-        <v>10.18067911979567</v>
+        <v>6.087160699610501</v>
       </c>
       <c r="K18">
-        <v>15.18486728476959</v>
+        <v>15.09014194194805</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.8413523602118</v>
+        <v>13.9307926459147</v>
       </c>
       <c r="N18">
-        <v>22.95189257957915</v>
+        <v>14.98146527695399</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.1773584752545</v>
+        <v>16.2075600164629</v>
       </c>
       <c r="C19">
-        <v>11.06401567726393</v>
+        <v>12.22771558248955</v>
       </c>
       <c r="D19">
-        <v>6.30550262898682</v>
+        <v>4.245936093042451</v>
       </c>
       <c r="E19">
-        <v>12.0526362747421</v>
+        <v>8.172929054353368</v>
       </c>
       <c r="F19">
-        <v>45.65827261516255</v>
+        <v>36.53168483836658</v>
       </c>
       <c r="I19">
-        <v>30.6350526997736</v>
+        <v>22.35899546425953</v>
       </c>
       <c r="J19">
-        <v>10.18187567336285</v>
+        <v>6.085969376705899</v>
       </c>
       <c r="K19">
-        <v>15.17364608193938</v>
+        <v>15.02098119779822</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.83706563960062</v>
+        <v>13.89084327381368</v>
       </c>
       <c r="N19">
-        <v>22.9559783292834</v>
+        <v>14.99578296298109</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.25314647783613</v>
+        <v>16.53994855438718</v>
       </c>
       <c r="C20">
-        <v>11.11612001024473</v>
+        <v>12.450054921708</v>
       </c>
       <c r="D20">
-        <v>6.31028028920127</v>
+        <v>4.303382529210264</v>
       </c>
       <c r="E20">
-        <v>12.05498119949227</v>
+        <v>8.244269464307687</v>
       </c>
       <c r="F20">
-        <v>45.68645044624298</v>
+        <v>36.85343369710363</v>
       </c>
       <c r="I20">
-        <v>30.63102433097563</v>
+        <v>22.45408688962699</v>
       </c>
       <c r="J20">
-        <v>10.17656483510008</v>
+        <v>6.091528025417117</v>
       </c>
       <c r="K20">
-        <v>15.22431336902183</v>
+        <v>15.33038031319722</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.85657568881551</v>
+        <v>14.07040033206634</v>
       </c>
       <c r="N20">
-        <v>22.93771981762217</v>
+        <v>14.93166918348348</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.50888861433462</v>
+        <v>17.62245340323357</v>
       </c>
       <c r="C21">
-        <v>11.29275545174447</v>
+        <v>13.18298687463739</v>
       </c>
       <c r="D21">
-        <v>6.327410979703176</v>
+        <v>4.493258453966168</v>
       </c>
       <c r="E21">
-        <v>12.06507208381921</v>
+        <v>8.485846508579796</v>
       </c>
       <c r="F21">
-        <v>45.79171977297896</v>
+        <v>37.95636598886716</v>
       </c>
       <c r="I21">
-        <v>30.62357850859191</v>
+        <v>22.794263603321</v>
       </c>
       <c r="J21">
-        <v>10.16001139004115</v>
+        <v>6.113745771814609</v>
       </c>
       <c r="K21">
-        <v>15.39740152120511</v>
+        <v>16.33827432803219</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.92592933286056</v>
+        <v>14.66954543023818</v>
       </c>
       <c r="N21">
-        <v>22.87860901137208</v>
+        <v>14.72194200318736</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.67656549106364</v>
+        <v>18.30488555265766</v>
       </c>
       <c r="C22">
-        <v>11.40918017596763</v>
+        <v>13.65151146662812</v>
       </c>
       <c r="D22">
-        <v>6.339398730354253</v>
+        <v>4.614896821080706</v>
       </c>
       <c r="E22">
-        <v>12.07330757803516</v>
+        <v>8.645021136483656</v>
       </c>
       <c r="F22">
-        <v>45.86836716450355</v>
+        <v>38.6935481475329</v>
       </c>
       <c r="I22">
-        <v>30.62325117856182</v>
+        <v>23.03262907950035</v>
       </c>
       <c r="J22">
-        <v>10.15015313724381</v>
+        <v>6.131011015003384</v>
       </c>
       <c r="K22">
-        <v>15.51248839313588</v>
+        <v>16.97393013792535</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.97404495263572</v>
+        <v>15.05772622526387</v>
       </c>
       <c r="N22">
-        <v>22.84164090774323</v>
+        <v>14.58928893162121</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.58704262209082</v>
+        <v>17.94291704062601</v>
       </c>
       <c r="C23">
-        <v>11.34696419554624</v>
+        <v>13.40240601679586</v>
       </c>
       <c r="D23">
-        <v>6.332928971172897</v>
+        <v>4.550207667541086</v>
       </c>
       <c r="E23">
-        <v>12.06876259344231</v>
+        <v>8.559955122425865</v>
       </c>
       <c r="F23">
-        <v>45.82674432728811</v>
+        <v>38.29859863942973</v>
       </c>
       <c r="I23">
-        <v>30.62301057394379</v>
+        <v>22.90390042771507</v>
       </c>
       <c r="J23">
-        <v>10.15532687947685</v>
+        <v>6.121538143465426</v>
       </c>
       <c r="K23">
-        <v>15.45089519528945</v>
+        <v>16.63674383784824</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.94811253876589</v>
+        <v>14.85087424183164</v>
       </c>
       <c r="N23">
-        <v>22.8612193139642</v>
+        <v>14.65967186145046</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.24897966337065</v>
+        <v>16.52182551937917</v>
       </c>
       <c r="C24">
-        <v>11.11325229404644</v>
+        <v>12.43789804089031</v>
       </c>
       <c r="D24">
-        <v>6.310013836451228</v>
+        <v>4.300239303878041</v>
       </c>
       <c r="E24">
-        <v>12.05484408481493</v>
+        <v>8.240344387548426</v>
       </c>
       <c r="F24">
-        <v>45.68486307672531</v>
+        <v>36.83568234760239</v>
       </c>
       <c r="I24">
-        <v>30.63122264709631</v>
+        <v>22.44878868496398</v>
       </c>
       <c r="J24">
-        <v>10.17685162387355</v>
+        <v>6.091209708361727</v>
       </c>
       <c r="K24">
-        <v>15.2215198196991</v>
+        <v>15.31350992476285</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.85548987395003</v>
+        <v>14.06055459069424</v>
       </c>
       <c r="N24">
-        <v>22.93871407390384</v>
+        <v>14.93516902560801</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.88850200416767</v>
+        <v>14.87828304418342</v>
       </c>
       <c r="C25">
-        <v>10.86659881047857</v>
+        <v>11.35265765000515</v>
       </c>
       <c r="D25">
-        <v>6.288771260488072</v>
+        <v>4.020903688067945</v>
       </c>
       <c r="E25">
-        <v>12.04692558802497</v>
+        <v>7.901916772858996</v>
       </c>
       <c r="F25">
-        <v>45.56581523101211</v>
+        <v>35.32790695988396</v>
       </c>
       <c r="I25">
-        <v>30.65955843543721</v>
+        <v>22.02272135995722</v>
       </c>
       <c r="J25">
-        <v>10.2042008724488</v>
+        <v>6.069610666051775</v>
       </c>
       <c r="K25">
-        <v>14.98357797878301</v>
+        <v>13.932022547354</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.76783943840669</v>
+        <v>13.1957172173173</v>
       </c>
       <c r="N25">
-        <v>23.0294617783635</v>
+        <v>15.25021721815158</v>
       </c>
       <c r="O25">
         <v>0</v>
